--- a/AutreData/ecartTypeRevenue.xlsx
+++ b/AutreData/ecartTypeRevenue.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2_Insee Références\RPM\RPM_2021\fichiers xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delmas Clément\Desktop\IA\MachineLearning\projet2\MachineLearingElectionsPresidentielles\AutreData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0537212D-E246-46CB-84C2-F1DBEC0F84E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="8880"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="figure 1" sheetId="1" r:id="rId1"/>
@@ -17,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'figure 1'!$A$1:$I$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'figure 2'!$A$1:$H$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'figure 2'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="231">
   <si>
     <t>1. Niveau de vie et pauvreté par région en 2018</t>
   </si>
@@ -106,9 +107,6 @@
   </si>
   <si>
     <t>Sources : Insee-DGFiP-Cnaf-Cnav-CCMSA, Fichier localisé social et fiscal 2018 ; Insee, Budget de famille 2017 (pour la Guadeloupe, la Guyane et Mayotte).</t>
-  </si>
-  <si>
-    <t>2. Taux de pauvreté par département en 2018</t>
   </si>
   <si>
     <t>Champ : personnes appartenant à des ménages fiscaux en logement ordinaire dont le revenu disponible est positif ou nul.</t>
@@ -802,12 +800,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -960,13 +958,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF18A303"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1187,7 +1178,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1207,109 +1198,97 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1317,24 +1296,29 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1353,66 +1337,62 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="2"/>
-    <cellStyle name="Accent 1" xfId="3"/>
-    <cellStyle name="Accent 2" xfId="4"/>
-    <cellStyle name="Accent 3" xfId="5"/>
-    <cellStyle name="Bad" xfId="6"/>
-    <cellStyle name="Error" xfId="7"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="8"/>
-    <cellStyle name="Footnote" xfId="9"/>
-    <cellStyle name="Good" xfId="10"/>
-    <cellStyle name="Heading (user)" xfId="11"/>
-    <cellStyle name="Heading 1" xfId="12"/>
-    <cellStyle name="Heading 2" xfId="13"/>
-    <cellStyle name="Hyperlink" xfId="14"/>
-    <cellStyle name="Neutral" xfId="15"/>
+    <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Footnote" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Good" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading (user)" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 1" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Heading 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Hyperlink" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Neutral" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="1" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1490,7 +1470,13 @@
     <xdr:ext cx="319320" cy="338040"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1528,14 +1514,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__1" displayName="__Anonymous_Sheet_DB__1" ref="A3:C104" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <sortState ref="A36:C135">
-    <sortCondition descending="1" ref="A35:A135"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__1" displayName="__Anonymous_Sheet_DB__1" ref="A1:C102" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:C133">
+    <sortCondition descending="1" ref="A33:A133"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Code" dataDxfId="2"/>
-    <tableColumn id="2" name="Département" dataDxfId="1"/>
-    <tableColumn id="3" name="Taux de pauvreté (en %)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Code" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Département" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Taux de pauvreté (en %)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1803,7 +1789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1818,7 +1804,7 @@
     <col min="6" max="6" width="11.875" style="6" customWidth="1"/>
     <col min="7" max="7" width="13.375" style="6" customWidth="1"/>
     <col min="8" max="64" width="10.75" style="4" customWidth="1"/>
-    <col min="65" max="16384" width="11" style="36"/>
+    <col min="65" max="16384" width="11" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
@@ -1839,19 +1825,19 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:64" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="59" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="2"/>
@@ -1913,19 +1899,19 @@
       <c r="BL3" s="2"/>
     </row>
     <row r="4" spans="1:64" ht="30.6" customHeight="1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
+        <v>225</v>
+      </c>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
       <c r="J4" s="2"/>
@@ -2153,7 +2139,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:64">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="11">
@@ -2174,8 +2160,8 @@
       <c r="G12" s="15">
         <v>21.5</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="J12" s="39"/>
+      <c r="H12" s="37"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:64">
       <c r="A13" s="10" t="s">
@@ -2451,39 +2437,39 @@
       <c r="E24" s="13"/>
       <c r="F24" s="33"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="40"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="34"/>
+      <c r="A25" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="26.1" customHeight="1">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
     </row>
     <row r="27" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="39"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="S28" s="35"/>
+      <c r="S28" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2505,1298 +2491,1267 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BL105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="36" customWidth="1"/>
-    <col min="4" max="5" width="21.25" style="36" customWidth="1"/>
-    <col min="6" max="64" width="8.625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="35" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="35" customWidth="1"/>
+    <col min="4" max="5" width="21.25" style="35" customWidth="1"/>
+    <col min="6" max="64" width="8.625" style="35" customWidth="1"/>
     <col min="65" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+    <row r="1" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>30</v>
       </c>
+      <c r="B2" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="45">
+        <v>10.3</v>
+      </c>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="45">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="47">
+      <c r="A4" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="45">
+        <v>15.5</v>
+      </c>
+      <c r="D4" s="46"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="45">
+        <v>16.8</v>
+      </c>
+      <c r="D5" s="46"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="45">
+        <v>13.9</v>
+      </c>
+      <c r="D6" s="46"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="45">
+        <v>15.8</v>
+      </c>
+      <c r="D7" s="46"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="45">
+        <v>14.4</v>
+      </c>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="45">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D9" s="46"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="45">
+        <v>18</v>
+      </c>
+      <c r="D10" s="46"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="45">
+        <v>16.2</v>
+      </c>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="45">
+        <v>20.7</v>
+      </c>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="45">
+        <v>14</v>
+      </c>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="45">
+        <v>18.7</v>
+      </c>
+      <c r="D14" s="46"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="45">
+        <v>12.4</v>
+      </c>
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="45">
+        <v>13</v>
+      </c>
+      <c r="D16" s="46"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="45">
+        <v>15</v>
+      </c>
+      <c r="D17" s="46"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="45">
+        <v>12.8</v>
+      </c>
+      <c r="D18" s="46"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="45">
+        <v>14.3</v>
+      </c>
+      <c r="D19" s="46"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="45">
+        <v>13.1</v>
+      </c>
+      <c r="D20" s="46"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="45">
+        <v>11.2</v>
+      </c>
+      <c r="D21" s="46"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="45">
+        <v>11.7</v>
+      </c>
+      <c r="D22" s="46"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="45">
+        <v>18.7</v>
+      </c>
+      <c r="D23" s="46"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="45">
+        <v>16.3</v>
+      </c>
+      <c r="D24" s="46"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="45">
+        <v>12.1</v>
+      </c>
+      <c r="D25" s="46"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="45">
+        <v>14.8</v>
+      </c>
+      <c r="D26" s="46"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="45">
+        <v>12.5</v>
+      </c>
+      <c r="D27" s="46"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="45">
+        <v>12</v>
+      </c>
+      <c r="D28" s="46"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="45">
+        <v>10.6</v>
+      </c>
+      <c r="D29" s="46"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="45">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D30" s="46"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="45">
+        <v>20.6</v>
+      </c>
+      <c r="D31" s="46"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="45">
+        <v>19.8</v>
+      </c>
+      <c r="D32" s="46"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="45">
+        <v>13.3</v>
+      </c>
+      <c r="D33" s="46"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="45">
+        <v>14.9</v>
+      </c>
+      <c r="D34" s="46"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="45">
+        <v>12.6</v>
+      </c>
+      <c r="D35" s="46"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="45">
+        <v>19.7</v>
+      </c>
+      <c r="D36" s="46"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="45">
+        <v>10.5</v>
+      </c>
+      <c r="D37" s="46"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="45">
+        <v>14.5</v>
+      </c>
+      <c r="D38" s="46"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="45">
+        <v>13</v>
+      </c>
+      <c r="D39" s="46"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="45">
+        <v>11.3</v>
+      </c>
+      <c r="D40" s="46"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="45">
+        <v>11.8</v>
+      </c>
+      <c r="D41" s="46"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="45">
+        <v>11.8</v>
+      </c>
+      <c r="D42" s="46"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="45">
+        <v>12.6</v>
+      </c>
+      <c r="D43" s="46"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="45">
+        <v>15</v>
+      </c>
+      <c r="D44" s="46"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="45">
+        <v>12.1</v>
+      </c>
+      <c r="D45" s="46"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="45">
         <v>10.3</v>
       </c>
-      <c r="D4" s="48"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="47">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="D5" s="48"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="47">
+      <c r="D46" s="46"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="45">
+        <v>13.2</v>
+      </c>
+      <c r="D47" s="46"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="45">
+        <v>15</v>
+      </c>
+      <c r="D48" s="46"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="45">
+        <v>17</v>
+      </c>
+      <c r="D49" s="46"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="45">
+        <v>14.5</v>
+      </c>
+      <c r="D50" s="46"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="45">
+        <v>11.4</v>
+      </c>
+      <c r="D51" s="46"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="45">
+        <v>12</v>
+      </c>
+      <c r="D52" s="46"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="45">
+        <v>14.4</v>
+      </c>
+      <c r="D53" s="46"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="45">
+        <v>14.9</v>
+      </c>
+      <c r="D54" s="46"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="45">
+        <v>11.5</v>
+      </c>
+      <c r="D55" s="46"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="45">
+        <v>15.4</v>
+      </c>
+      <c r="D56" s="46"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="45">
+        <v>14.5</v>
+      </c>
+      <c r="D57" s="46"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="45">
+        <v>11.2</v>
+      </c>
+      <c r="D58" s="46"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="45">
+        <v>15.3</v>
+      </c>
+      <c r="D59" s="46"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="45">
+        <v>15.7</v>
+      </c>
+      <c r="D60" s="46"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="45">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D61" s="46"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="45">
+        <v>12.9</v>
+      </c>
+      <c r="D62" s="46"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="45">
+        <v>15.4</v>
+      </c>
+      <c r="D63" s="46"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="45">
+        <v>19.3</v>
+      </c>
+      <c r="D64" s="46"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="45">
+        <v>13.2</v>
+      </c>
+      <c r="D65" s="46"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="45">
+        <v>12.3</v>
+      </c>
+      <c r="D66" s="46"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="45">
+        <v>15.4</v>
+      </c>
+      <c r="D67" s="46"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="45">
+        <v>21</v>
+      </c>
+      <c r="D68" s="46"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="45">
+        <v>13.7</v>
+      </c>
+      <c r="D69" s="46"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="45">
+        <v>12.9</v>
+      </c>
+      <c r="D70" s="46"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="45">
+        <v>14.2</v>
+      </c>
+      <c r="D71" s="46"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" s="45">
+        <v>13.2</v>
+      </c>
+      <c r="D72" s="46"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="45">
+        <v>13.1</v>
+      </c>
+      <c r="D73" s="46"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="45">
+        <v>13.1</v>
+      </c>
+      <c r="D74" s="46"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="45">
+        <v>10</v>
+      </c>
+      <c r="D75" s="46"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" s="45">
+        <v>8.9</v>
+      </c>
+      <c r="D76" s="46"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" s="45">
+        <v>15.2</v>
+      </c>
+      <c r="D77" s="46"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="45">
+        <v>14.9</v>
+      </c>
+      <c r="D78" s="46"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" s="45">
+        <v>11.8</v>
+      </c>
+      <c r="D79" s="46"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="45">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D80" s="46"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" s="45">
+        <v>12.3</v>
+      </c>
+      <c r="D81" s="46"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="45">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D82" s="46"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="45">
+        <v>15.6</v>
+      </c>
+      <c r="D83" s="46"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" s="45">
+        <v>17</v>
+      </c>
+      <c r="D84" s="46"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="45">
+        <v>15.6</v>
+      </c>
+      <c r="D85" s="46"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" s="45">
+        <v>20</v>
+      </c>
+      <c r="D86" s="46"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" s="45">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D87" s="46"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C88" s="45">
+        <v>14.3</v>
+      </c>
+      <c r="D88" s="46"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="45">
         <v>15.5</v>
       </c>
-      <c r="D6" s="48"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="47">
-        <v>16.8</v>
-      </c>
-      <c r="D7" s="48"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="47">
-        <v>13.9</v>
-      </c>
-      <c r="D8" s="48"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="47">
-        <v>15.8</v>
-      </c>
-      <c r="D9" s="48"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="47">
-        <v>14.4</v>
-      </c>
-      <c r="D10" s="48"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="47">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D11" s="48"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="47">
+      <c r="D89" s="46"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" s="45">
+        <v>15.4</v>
+      </c>
+      <c r="D90" s="46"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C91" s="45">
+        <v>14.5</v>
+      </c>
+      <c r="D91" s="46"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C92" s="45">
+        <v>14.5</v>
+      </c>
+      <c r="D92" s="46"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C93" s="45">
+        <v>13.1</v>
+      </c>
+      <c r="D93" s="46"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C94" s="45">
+        <v>11.9</v>
+      </c>
+      <c r="D94" s="46"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" s="45">
+        <v>28.4</v>
+      </c>
+      <c r="D95" s="46"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" s="45">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D96" s="46"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C97" s="45">
+        <v>17.2</v>
+      </c>
+      <c r="D97" s="46"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B98" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="45">
+        <v>29.8</v>
+      </c>
+      <c r="D98" s="46"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B99" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="48"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="47">
-        <v>16.2</v>
-      </c>
-      <c r="D13" s="48"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="47">
-        <v>20.7</v>
-      </c>
-      <c r="D14" s="48"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="47">
-        <v>14</v>
-      </c>
-      <c r="D15" s="48"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="47">
-        <v>18.7</v>
-      </c>
-      <c r="D16" s="48"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="47">
-        <v>12.4</v>
-      </c>
-      <c r="D17" s="48"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="47">
-        <v>13</v>
-      </c>
-      <c r="D18" s="48"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="47">
-        <v>15</v>
-      </c>
-      <c r="D19" s="48"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="47">
-        <v>12.8</v>
-      </c>
-      <c r="D20" s="48"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="47">
-        <v>14.3</v>
-      </c>
-      <c r="D21" s="48"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="47">
-        <v>13.1</v>
-      </c>
-      <c r="D22" s="48"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="47">
-        <v>11.2</v>
-      </c>
-      <c r="D23" s="48"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="47">
-        <v>11.7</v>
-      </c>
-      <c r="D24" s="48"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="47">
-        <v>18.7</v>
-      </c>
-      <c r="D25" s="48"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="47">
-        <v>16.3</v>
-      </c>
-      <c r="D26" s="48"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="47">
-        <v>12.1</v>
-      </c>
-      <c r="D27" s="48"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="47">
-        <v>14.8</v>
-      </c>
-      <c r="D28" s="48"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="47">
-        <v>12.5</v>
-      </c>
-      <c r="D29" s="48"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="47">
-        <v>12</v>
-      </c>
-      <c r="D30" s="48"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="47">
-        <v>10.6</v>
-      </c>
-      <c r="D31" s="48"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="47">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D32" s="48"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="47">
-        <v>20.6</v>
-      </c>
-      <c r="D33" s="48"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="47">
-        <v>19.8</v>
-      </c>
-      <c r="D34" s="48"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="47">
-        <v>13.3</v>
-      </c>
-      <c r="D35" s="48"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="47">
-        <v>14.9</v>
-      </c>
-      <c r="D36" s="48"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="47">
-        <v>12.6</v>
-      </c>
-      <c r="D37" s="48"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="47">
-        <v>19.7</v>
-      </c>
-      <c r="D38" s="48"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="47">
-        <v>10.5</v>
-      </c>
-      <c r="D39" s="48"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="47">
-        <v>14.5</v>
-      </c>
-      <c r="D40" s="48"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="47">
-        <v>13</v>
-      </c>
-      <c r="D41" s="48"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="47">
-        <v>11.3</v>
-      </c>
-      <c r="D42" s="48"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="47">
-        <v>11.8</v>
-      </c>
-      <c r="D43" s="48"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="47">
-        <v>11.8</v>
-      </c>
-      <c r="D44" s="48"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="47">
-        <v>12.6</v>
-      </c>
-      <c r="D45" s="48"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="47">
-        <v>15</v>
-      </c>
-      <c r="D46" s="48"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="47">
-        <v>12.1</v>
-      </c>
-      <c r="D47" s="48"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="47">
-        <v>10.3</v>
-      </c>
-      <c r="D48" s="48"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="47">
-        <v>13.2</v>
-      </c>
-      <c r="D49" s="48"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="47">
-        <v>15</v>
-      </c>
-      <c r="D50" s="48"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="47">
-        <v>17</v>
-      </c>
-      <c r="D51" s="48"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="47">
-        <v>14.5</v>
-      </c>
-      <c r="D52" s="48"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="47">
-        <v>11.4</v>
-      </c>
-      <c r="D53" s="48"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B54" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="47">
-        <v>12</v>
-      </c>
-      <c r="D54" s="48"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="47">
-        <v>14.4</v>
-      </c>
-      <c r="D55" s="48"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="47">
-        <v>14.9</v>
-      </c>
-      <c r="D56" s="48"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="B57" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C57" s="47">
-        <v>11.5</v>
-      </c>
-      <c r="D57" s="48"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="B58" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" s="47">
-        <v>15.4</v>
-      </c>
-      <c r="D58" s="48"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="B59" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="47">
-        <v>14.5</v>
-      </c>
-      <c r="D59" s="48"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="B60" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" s="47">
-        <v>11.2</v>
-      </c>
-      <c r="D60" s="48"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B61" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="47">
-        <v>15.3</v>
-      </c>
-      <c r="D61" s="48"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="47">
-        <v>15.7</v>
-      </c>
-      <c r="D62" s="48"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="B63" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="47">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="D63" s="48"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="B64" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" s="47">
-        <v>12.9</v>
-      </c>
-      <c r="D64" s="48"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B65" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="C65" s="47">
-        <v>15.4</v>
-      </c>
-      <c r="D65" s="48"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="B66" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" s="47">
-        <v>19.3</v>
-      </c>
-      <c r="D66" s="48"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="B67" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="47">
-        <v>13.2</v>
-      </c>
-      <c r="D67" s="48"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="B68" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="47">
-        <v>12.3</v>
-      </c>
-      <c r="D68" s="48"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B69" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="47">
-        <v>15.4</v>
-      </c>
-      <c r="D69" s="48"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="B70" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C70" s="47">
+      <c r="C99" s="45">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="47">
+        <v>971</v>
+      </c>
+      <c r="B100" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="45">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="47">
+        <v>976</v>
+      </c>
+      <c r="B101" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="48"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="B71" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C71" s="47">
-        <v>13.7</v>
-      </c>
-      <c r="D71" s="48"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="B72" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="C72" s="47">
-        <v>12.9</v>
-      </c>
-      <c r="D72" s="48"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="B73" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="47">
-        <v>14.2</v>
-      </c>
-      <c r="D73" s="48"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B74" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="C74" s="47">
-        <v>13.2</v>
-      </c>
-      <c r="D74" s="48"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="B75" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="C75" s="47">
-        <v>13.1</v>
-      </c>
-      <c r="D75" s="48"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="B76" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="C76" s="47">
-        <v>13.1</v>
-      </c>
-      <c r="D76" s="48"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="B77" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C77" s="47">
-        <v>10</v>
-      </c>
-      <c r="D77" s="48"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="C78" s="47">
-        <v>8.9</v>
-      </c>
-      <c r="D78" s="48"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="B79" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="C79" s="47">
-        <v>15.2</v>
-      </c>
-      <c r="D79" s="48"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="B80" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="C80" s="47">
-        <v>14.9</v>
-      </c>
-      <c r="D80" s="48"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="B81" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C81" s="47">
-        <v>11.8</v>
-      </c>
-      <c r="D81" s="48"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="B82" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82" s="47">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="D82" s="48"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="B83" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="47">
-        <v>12.3</v>
-      </c>
-      <c r="D83" s="48"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="B84" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C84" s="47">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D84" s="48"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="B85" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="C85" s="47">
-        <v>15.6</v>
-      </c>
-      <c r="D85" s="48"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="B86" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" s="47">
-        <v>17</v>
-      </c>
-      <c r="D86" s="48"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="B87" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87" s="47">
-        <v>15.6</v>
-      </c>
-      <c r="D87" s="48"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="B88" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="C88" s="47">
-        <v>20</v>
-      </c>
-      <c r="D88" s="48"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="B89" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="C89" s="47">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D89" s="48"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="B90" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="C90" s="47">
-        <v>14.3</v>
-      </c>
-      <c r="D90" s="48"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="B91" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="C91" s="47">
-        <v>15.5</v>
-      </c>
-      <c r="D91" s="48"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="B92" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C92" s="47">
-        <v>15.4</v>
-      </c>
-      <c r="D92" s="48"/>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="B93" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="C93" s="47">
-        <v>14.5</v>
-      </c>
-      <c r="D93" s="48"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="B94" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C94" s="47">
-        <v>14.5</v>
-      </c>
-      <c r="D94" s="48"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="B95" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="C95" s="47">
-        <v>13.1</v>
-      </c>
-      <c r="D95" s="48"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="B96" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C96" s="47">
-        <v>11.9</v>
-      </c>
-      <c r="D96" s="48"/>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="B97" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="C97" s="47">
-        <v>28.4</v>
-      </c>
-      <c r="D97" s="48"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="B98" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="C98" s="47">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D98" s="48"/>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="B99" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="C99" s="47">
-        <v>17.2</v>
-      </c>
-      <c r="D99" s="48"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="B100" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="47">
-        <v>29.8</v>
-      </c>
-      <c r="D100" s="48"/>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="B101" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" s="47">
-        <v>38.9</v>
+      <c r="C101" s="45">
+        <v>52.9</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="49">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B102" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C102" s="47">
-        <v>34.5</v>
+        <v>22</v>
+      </c>
+      <c r="C102" s="51">
+        <v>77.3</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="49">
-        <v>976</v>
-      </c>
-      <c r="B103" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C103" s="47">
-        <v>52.9</v>
-      </c>
+      <c r="A103" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="B103" s="61"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="61"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="56">
-        <v>973</v>
-      </c>
-      <c r="B104" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C104" s="58">
-        <v>77.3</v>
-      </c>
-      <c r="D104" s="59"/>
+      <c r="A104" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="52"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="B105" s="60"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B106" s="63"/>
-      <c r="C106" s="63"/>
-      <c r="D106" s="61"/>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="64" t="s">
+      <c r="A105" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="62"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="59"/>
-      <c r="B108" s="59"/>
-      <c r="C108" s="59"/>
-      <c r="D108" s="59"/>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="59"/>
-      <c r="B109" s="59"/>
-      <c r="C109" s="59"/>
-      <c r="D109" s="59"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="59"/>
-      <c r="B110" s="59"/>
-      <c r="C110" s="59"/>
-      <c r="D110" s="59"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="55"/>
+      <c r="D105" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A103:D103"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.3775590551181103" bottom="1.3775590551181103" header="0.98385826771653528" footer="0.98385826771653528"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
